--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498427.5890239688</v>
+        <v>-501191.277021578</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5237468608191</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.26942349247171</v>
+        <v>413.0303156542415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.2023617328912</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>123.7569958687097</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.163859158965</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>362.9995370551919</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.1644002244309</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>119.3029445298685</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>9.871444072276466</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.2524523656762</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.5902694149747</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>309.7049695792816</v>
       </c>
       <c r="G5" t="n">
         <v>413.0303156542415</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>113.6779161048796</v>
+        <v>122.8683457783078</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.124098221796032</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>157.2372564311339</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.1483228680699</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.163859158965</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9716491425784</v>
       </c>
       <c r="H7" t="n">
-        <v>79.71833482817658</v>
+        <v>153.1644002244309</v>
       </c>
       <c r="I7" t="n">
         <v>124.7964353442393</v>
       </c>
       <c r="J7" t="n">
-        <v>21.2925338539343</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8070376292070307</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2634295265338</v>
+        <v>102.3306414836052</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>182.968944226192</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>211.707518970696</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>75.70075238110387</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>31.11500971740692</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.9491534982824</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>156.8624097380495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>115.4764219077142</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898981</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065886</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261731</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.136400530892</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002296</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652599</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096052</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.120802835249</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972049</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317888</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445518</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969979</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600556</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.499175194121</v>
+        <v>1158.42452402331</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.536658253709</v>
+        <v>789.4620070828985</v>
       </c>
       <c r="D2" t="n">
-        <v>821.270959646959</v>
+        <v>789.4620070828985</v>
       </c>
       <c r="E2" t="n">
-        <v>435.4827070487148</v>
+        <v>789.4620070828985</v>
       </c>
       <c r="F2" t="n">
-        <v>68.28700314889744</v>
+        <v>789.4620070828985</v>
       </c>
       <c r="G2" t="n">
-        <v>52.86334305549167</v>
+        <v>372.2596680382101</v>
       </c>
       <c r="H2" t="n">
         <v>52.86334305549167</v>
@@ -4328,22 +4328,22 @@
         <v>52.86334305549167</v>
       </c>
       <c r="J2" t="n">
-        <v>203.1381401076682</v>
+        <v>231.973821861278</v>
       </c>
       <c r="K2" t="n">
-        <v>592.3231224833504</v>
+        <v>409.9041696974675</v>
       </c>
       <c r="L2" t="n">
-        <v>1127.418134752836</v>
+        <v>944.9991819669534</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.402584988642</v>
+        <v>1557.002030360664</v>
       </c>
       <c r="N2" t="n">
-        <v>1468.702826584964</v>
+        <v>2164.27572712485</v>
       </c>
       <c r="O2" t="n">
-        <v>1996.946520354092</v>
+        <v>2315.52724144386</v>
       </c>
       <c r="P2" t="n">
         <v>2410.115908728721</v>
@@ -4358,22 +4358,22 @@
         <v>2643.167152774583</v>
       </c>
       <c r="T2" t="n">
-        <v>2643.167152774583</v>
+        <v>2518.160086240533</v>
       </c>
       <c r="U2" t="n">
-        <v>2643.167152774583</v>
+        <v>2264.459218403194</v>
       </c>
       <c r="V2" t="n">
-        <v>2312.104265431013</v>
+        <v>2264.459218403194</v>
       </c>
       <c r="W2" t="n">
-        <v>2312.104265431013</v>
+        <v>1911.69056313308</v>
       </c>
       <c r="X2" t="n">
-        <v>1938.638507169933</v>
+        <v>1545.024364087432</v>
       </c>
       <c r="Y2" t="n">
-        <v>1548.499175194121</v>
+        <v>1545.024364087432</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>969.0486138161109</v>
+        <v>969.04861381611</v>
       </c>
       <c r="C3" t="n">
-        <v>794.5955845349839</v>
+        <v>794.595584534983</v>
       </c>
       <c r="D3" t="n">
-        <v>645.6611748737325</v>
+        <v>645.6611748737316</v>
       </c>
       <c r="E3" t="n">
-        <v>486.423719868277</v>
+        <v>486.4237198682761</v>
       </c>
       <c r="F3" t="n">
-        <v>339.889161895162</v>
+        <v>339.8891618951611</v>
       </c>
       <c r="G3" t="n">
-        <v>202.3864707053421</v>
+        <v>202.3864707053413</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8785262054485</v>
+        <v>100.878526205448</v>
       </c>
       <c r="I3" t="n">
         <v>52.86334305549167</v>
       </c>
       <c r="J3" t="n">
-        <v>52.86334305549167</v>
+        <v>104.7978638439755</v>
       </c>
       <c r="K3" t="n">
-        <v>372.5911448716126</v>
+        <v>162.7050810176436</v>
       </c>
       <c r="L3" t="n">
-        <v>496.777085711218</v>
+        <v>654.0229637076736</v>
       </c>
       <c r="M3" t="n">
-        <v>1122.10110248339</v>
+        <v>818.298967367346</v>
       </c>
       <c r="N3" t="n">
         <v>1472.482837679055</v>
@@ -4431,28 +4431,28 @@
         <v>2643.167152774583</v>
       </c>
       <c r="R3" t="n">
-        <v>2618.249676509037</v>
+        <v>2618.249676509036</v>
       </c>
       <c r="S3" t="n">
-        <v>2467.644386581346</v>
+        <v>2467.644386581345</v>
       </c>
       <c r="T3" t="n">
-        <v>2270.408034725776</v>
+        <v>2270.408034725775</v>
       </c>
       <c r="U3" t="n">
-        <v>2042.26521476661</v>
+        <v>2042.265214766609</v>
       </c>
       <c r="V3" t="n">
-        <v>1807.113106534867</v>
+        <v>1807.113106534866</v>
       </c>
       <c r="W3" t="n">
-        <v>1552.875749806666</v>
+        <v>1552.875749806665</v>
       </c>
       <c r="X3" t="n">
-        <v>1345.024249601133</v>
+        <v>1345.024249601132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1137.263950836179</v>
+        <v>1137.263950836178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>497.0190661392566</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="C4" t="n">
-        <v>328.0828832113497</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="D4" t="n">
-        <v>328.0828832113497</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="E4" t="n">
-        <v>328.0828832113497</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="F4" t="n">
-        <v>328.0828832113497</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="G4" t="n">
-        <v>328.0828832113497</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="H4" t="n">
-        <v>173.3713678331366</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="I4" t="n">
         <v>52.86334305549167</v>
@@ -4510,28 +4510,28 @@
         <v>1007.228815319747</v>
       </c>
       <c r="R4" t="n">
-        <v>1007.228815319747</v>
+        <v>997.2576596911853</v>
       </c>
       <c r="S4" t="n">
-        <v>1007.228815319747</v>
+        <v>788.9218492208053</v>
       </c>
       <c r="T4" t="n">
-        <v>1007.228815319747</v>
+        <v>563.0730922359824</v>
       </c>
       <c r="U4" t="n">
-        <v>1007.228815319747</v>
+        <v>563.0730922359824</v>
       </c>
       <c r="V4" t="n">
-        <v>1007.228815319747</v>
+        <v>563.0730922359824</v>
       </c>
       <c r="W4" t="n">
-        <v>717.8116452827867</v>
+        <v>273.6559221990218</v>
       </c>
       <c r="X4" t="n">
-        <v>717.8116452827867</v>
+        <v>273.6559221990218</v>
       </c>
       <c r="Y4" t="n">
-        <v>497.0190661392566</v>
+        <v>52.86334305549167</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.8777647735044</v>
+        <v>1275.970941826036</v>
       </c>
       <c r="C5" t="n">
-        <v>995.8777647735044</v>
+        <v>907.008424885624</v>
       </c>
       <c r="D5" t="n">
-        <v>995.8777647735044</v>
+        <v>907.008424885624</v>
       </c>
       <c r="E5" t="n">
-        <v>995.8777647735044</v>
+        <v>907.008424885624</v>
       </c>
       <c r="F5" t="n">
-        <v>584.8918599838969</v>
+        <v>594.175122280289</v>
       </c>
       <c r="G5" t="n">
-        <v>167.6895209392085</v>
+        <v>176.9727832356006</v>
       </c>
       <c r="H5" t="n">
-        <v>167.6895209392085</v>
+        <v>176.9727832356006</v>
       </c>
       <c r="I5" t="n">
         <v>52.86334305549167</v>
       </c>
       <c r="J5" t="n">
-        <v>64.56817284092494</v>
+        <v>231.973821861278</v>
       </c>
       <c r="K5" t="n">
-        <v>132.8491967711541</v>
+        <v>621.1588042369602</v>
       </c>
       <c r="L5" t="n">
-        <v>667.94420904064</v>
+        <v>1156.253816506446</v>
       </c>
       <c r="M5" t="n">
-        <v>1279.94705743435</v>
+        <v>1504.594425741948</v>
       </c>
       <c r="N5" t="n">
-        <v>1887.220754198537</v>
+        <v>1678.89466733827</v>
       </c>
       <c r="O5" t="n">
-        <v>2415.464447967664</v>
+        <v>2207.138361107398</v>
       </c>
       <c r="P5" t="n">
         <v>2620.307749482027</v>
@@ -4589,28 +4589,28 @@
         <v>2643.167152774583</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.971093964688</v>
+        <v>2643.167152774583</v>
       </c>
       <c r="S5" t="n">
-        <v>2477.145582418088</v>
+        <v>2484.341641227983</v>
       </c>
       <c r="T5" t="n">
-        <v>2477.145582418088</v>
+        <v>2269.04030499761</v>
       </c>
       <c r="U5" t="n">
-        <v>2477.145582418088</v>
+        <v>2015.339437160271</v>
       </c>
       <c r="V5" t="n">
-        <v>2146.082695074518</v>
+        <v>2015.339437160271</v>
       </c>
       <c r="W5" t="n">
-        <v>2146.082695074518</v>
+        <v>1662.570781890157</v>
       </c>
       <c r="X5" t="n">
-        <v>1772.616936813438</v>
+        <v>1662.570781890157</v>
       </c>
       <c r="Y5" t="n">
-        <v>1382.477604837626</v>
+        <v>1662.570781890157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.04861381611</v>
+        <v>969.0486138161112</v>
       </c>
       <c r="C6" t="n">
-        <v>794.595584534983</v>
+        <v>794.5955845349843</v>
       </c>
       <c r="D6" t="n">
-        <v>645.6611748737316</v>
+        <v>645.661174873733</v>
       </c>
       <c r="E6" t="n">
-        <v>486.4237198682761</v>
+        <v>486.4237198682774</v>
       </c>
       <c r="F6" t="n">
-        <v>339.8891618951611</v>
+        <v>339.8891618951624</v>
       </c>
       <c r="G6" t="n">
-        <v>202.3864707053413</v>
+        <v>202.386470705342</v>
       </c>
       <c r="H6" t="n">
-        <v>100.878526205448</v>
+        <v>100.8785262054483</v>
       </c>
       <c r="I6" t="n">
         <v>52.86334305549167</v>
       </c>
       <c r="J6" t="n">
-        <v>52.86334305549167</v>
+        <v>165.8469375195963</v>
       </c>
       <c r="K6" t="n">
-        <v>372.5911448716126</v>
+        <v>485.5747393357171</v>
       </c>
       <c r="L6" t="n">
-        <v>863.9090275616427</v>
+        <v>898.1767876326738</v>
       </c>
       <c r="M6" t="n">
-        <v>1489.233044333815</v>
+        <v>1523.500804404846</v>
       </c>
       <c r="N6" t="n">
-        <v>1787.760978632593</v>
+        <v>2177.684674716555</v>
       </c>
       <c r="O6" t="n">
         <v>2322.903900407611</v>
@@ -4668,28 +4668,28 @@
         <v>2643.167152774583</v>
       </c>
       <c r="R6" t="n">
-        <v>2618.249676509036</v>
+        <v>2618.249676509037</v>
       </c>
       <c r="S6" t="n">
-        <v>2467.644386581345</v>
+        <v>2467.644386581346</v>
       </c>
       <c r="T6" t="n">
-        <v>2270.408034725775</v>
+        <v>2270.408034725776</v>
       </c>
       <c r="U6" t="n">
-        <v>2042.265214766609</v>
+        <v>2042.26521476661</v>
       </c>
       <c r="V6" t="n">
-        <v>1807.113106534866</v>
+        <v>1807.113106534867</v>
       </c>
       <c r="W6" t="n">
-        <v>1552.875749806665</v>
+        <v>1552.875749806666</v>
       </c>
       <c r="X6" t="n">
-        <v>1345.024249601132</v>
+        <v>1345.024249601133</v>
       </c>
       <c r="Y6" t="n">
-        <v>1137.263950836178</v>
+        <v>1137.263950836179</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="C7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="D7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="E7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="F7" t="n">
-        <v>280.9515289406938</v>
+        <v>502.2900952890761</v>
       </c>
       <c r="G7" t="n">
-        <v>280.9515289406938</v>
+        <v>333.6318638319262</v>
       </c>
       <c r="H7" t="n">
-        <v>200.4279584071821</v>
+        <v>178.9203484537131</v>
       </c>
       <c r="I7" t="n">
-        <v>74.37095300896067</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="J7" t="n">
         <v>52.86334305549167</v>
@@ -4744,31 +4744,31 @@
         <v>1007.228815319747</v>
       </c>
       <c r="Q7" t="n">
-        <v>1006.413625795296</v>
+        <v>1007.228815319747</v>
       </c>
       <c r="R7" t="n">
-        <v>1006.413625795296</v>
+        <v>1007.228815319747</v>
       </c>
       <c r="S7" t="n">
-        <v>1006.413625795296</v>
+        <v>1007.228815319747</v>
       </c>
       <c r="T7" t="n">
-        <v>1006.413625795296</v>
+        <v>1007.228815319747</v>
       </c>
       <c r="U7" t="n">
-        <v>717.2586464755648</v>
+        <v>903.8645309928734</v>
       </c>
       <c r="V7" t="n">
-        <v>717.2586464755648</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="W7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="X7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
       <c r="Y7" t="n">
-        <v>427.8414764386042</v>
+        <v>649.1800427869865</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1340.643547373152</v>
+        <v>1707.165071722912</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.643547373152</v>
+        <v>1338.202554782501</v>
       </c>
       <c r="D8" t="n">
-        <v>982.3778487664013</v>
+        <v>979.9368561757501</v>
       </c>
       <c r="E8" t="n">
-        <v>596.589596168157</v>
+        <v>795.1197407957582</v>
       </c>
       <c r="F8" t="n">
-        <v>185.6036913785493</v>
+        <v>788.1742400465547</v>
       </c>
       <c r="G8" t="n">
-        <v>172.5563136553808</v>
+        <v>371.0864582829822</v>
       </c>
       <c r="H8" t="n">
-        <v>172.5563136553808</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="I8" t="n">
         <v>52.86334305549167</v>
@@ -4814,13 +4814,13 @@
         <v>1384.48302616088</v>
       </c>
       <c r="N8" t="n">
-        <v>1578.817239052863</v>
+        <v>1631.706781646616</v>
       </c>
       <c r="O8" t="n">
-        <v>1968.676145660388</v>
+        <v>2178.867986413694</v>
       </c>
       <c r="P8" t="n">
-        <v>2397.991191999683</v>
+        <v>2608.183032752988</v>
       </c>
       <c r="Q8" t="n">
         <v>2643.167152774583</v>
@@ -4829,25 +4829,25 @@
         <v>2643.167152774583</v>
       </c>
       <c r="S8" t="n">
-        <v>2486.952115271411</v>
+        <v>2643.167152774583</v>
       </c>
       <c r="T8" t="n">
-        <v>2272.152253539123</v>
+        <v>2428.367291042295</v>
       </c>
       <c r="U8" t="n">
-        <v>2058.306274780844</v>
+        <v>2428.367291042295</v>
       </c>
       <c r="V8" t="n">
-        <v>1727.243387437273</v>
+        <v>2097.304403698724</v>
       </c>
       <c r="W8" t="n">
-        <v>1727.243387437273</v>
+        <v>2097.304403698724</v>
       </c>
       <c r="X8" t="n">
-        <v>1727.243387437273</v>
+        <v>2097.304403698724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1727.243387437273</v>
+        <v>1707.165071722912</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1477.382688353661</v>
       </c>
       <c r="O9" t="n">
-        <v>2026.818697106384</v>
+        <v>1980.527175955217</v>
       </c>
       <c r="P9" t="n">
-        <v>2450.78646558722</v>
+        <v>2404.494944436054</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.208400496521</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>442.0063783407172</v>
+        <v>200.7764366378848</v>
       </c>
       <c r="C10" t="n">
-        <v>442.0063783407172</v>
+        <v>200.7764366378848</v>
       </c>
       <c r="D10" t="n">
-        <v>442.0063783407172</v>
+        <v>200.7764366378848</v>
       </c>
       <c r="E10" t="n">
-        <v>294.0932847583241</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="F10" t="n">
-        <v>147.2033372604137</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="G10" t="n">
-        <v>70.73793081485428</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="H10" t="n">
-        <v>70.73793081485428</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="I10" t="n">
-        <v>70.73793081485428</v>
+        <v>52.86334305549167</v>
       </c>
       <c r="J10" t="n">
         <v>52.86334305549167</v>
@@ -4987,25 +4987,25 @@
         <v>922.3200632342391</v>
       </c>
       <c r="S10" t="n">
-        <v>922.3200632342391</v>
+        <v>714.8797784866445</v>
       </c>
       <c r="T10" t="n">
-        <v>696.6908665466041</v>
+        <v>714.8797784866445</v>
       </c>
       <c r="U10" t="n">
-        <v>696.6908665466041</v>
+        <v>683.450475741789</v>
       </c>
       <c r="V10" t="n">
-        <v>442.0063783407172</v>
+        <v>428.7659875359021</v>
       </c>
       <c r="W10" t="n">
-        <v>442.0063783407172</v>
+        <v>428.7659875359021</v>
       </c>
       <c r="X10" t="n">
-        <v>442.0063783407172</v>
+        <v>200.7764366378848</v>
       </c>
       <c r="Y10" t="n">
-        <v>442.0063783407172</v>
+        <v>200.7764366378848</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,25 +5121,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E13" t="n">
         <v>464.5051450557705</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6549,19 +6549,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7312,19 +7312,19 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7403,34 +7403,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718135</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,22 +7588,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,58 +7637,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638189501</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111432</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075556</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332366</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014762</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355924</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694702</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
         <v>93.81666304797186</v>
@@ -7725,34 +7725,34 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756278</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468505</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962612</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589167</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143777</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060774</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060774</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060774</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
         <v>2244.643795685161</v>
@@ -7770,7 +7770,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319355</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656843</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150044</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942671</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380738</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311343</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.31744497929</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656419</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382524</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973203</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717222</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931281</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547841</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532438</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838292</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.68550859406</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518756</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582394</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400519</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>139.9696639058012</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>110.7568928343035</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>11.9661924473739</v>
+        <v>64.42530435493329</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>169.039585476645</v>
+        <v>475.910429028205</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>183.1880393936322</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>111.3683174035365</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>11.9661924473739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>291.329401472072</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>116.6620088131229</v>
+        <v>475.910429028205</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>53.42378039773104</v>
       </c>
       <c r="O8" t="n">
-        <v>221.9089710005715</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>347.103207002824</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>163.3181754619439</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>43.35229888089233</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.2023617328912</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122.8683457783078</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.124098221796032</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>157.2372564311339</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.1483228680699</v>
+        <v>89.39132699936022</v>
       </c>
       <c r="U2" t="n">
-        <v>251.163859158965</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.2925338539343</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>121.5891541435835</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2634295265338</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.48480914828673</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922698</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26335,25 +26335,25 @@
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172892.2066301381</v>
+        <v>172892.206630138</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>127571.6394425754</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.830934474535751e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>183742.0693533004</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26433,10 +26433,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26445,19 +26445,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695116</v>
-      </c>
       <c r="N4" t="n">
+        <v>14278.33979478855</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478853</v>
       </c>
-      <c r="O4" t="n">
-        <v>14278.33979478856</v>
-      </c>
       <c r="P4" t="n">
-        <v>14278.33979478836</v>
+        <v>14278.33979478858</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26509,7 @@
         <v>103164.1158539154</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539155</v>
+        <v>103164.1158539154</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745370.6848803998</v>
+        <v>-745661.2920452461</v>
       </c>
       <c r="C6" t="n">
-        <v>-7796.185060936259</v>
+        <v>-7796.185060936288</v>
       </c>
       <c r="D6" t="n">
         <v>-27805.44832752507</v>
       </c>
       <c r="E6" t="n">
-        <v>-620169.5116263839</v>
+        <v>-620204.2495518195</v>
       </c>
       <c r="F6" t="n">
-        <v>154912.6345436497</v>
+        <v>154877.896618214</v>
       </c>
       <c r="G6" t="n">
-        <v>154912.6345436499</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="H6" t="n">
-        <v>154912.6345436496</v>
+        <v>154877.896618214</v>
       </c>
       <c r="I6" t="n">
-        <v>154912.6345436497</v>
+        <v>154877.8966182139</v>
       </c>
       <c r="J6" t="n">
-        <v>-17979.57208648833</v>
+        <v>-18014.31001192391</v>
       </c>
       <c r="K6" t="n">
-        <v>154912.6345436497</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="L6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="M6" t="n">
-        <v>27340.9951010743</v>
+        <v>27306.2571756387</v>
       </c>
       <c r="N6" t="n">
-        <v>129968.4015635568</v>
+        <v>129968.4015635567</v>
       </c>
       <c r="O6" t="n">
+        <v>149396.1195571885</v>
+      </c>
+      <c r="P6" t="n">
         <v>149396.1195571882</v>
-      </c>
-      <c r="P6" t="n">
-        <v>149396.1195571843</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26777,7 +26777,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.080380560684716e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.366462912410498e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>660.7917881936459</v>
+        <v>660.7917881936456</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.7608921617698</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>122.8683457783078</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.124098221796032</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>157.2372564311339</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>6.731563623277111</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9716491425784</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.1644002244309</v>
       </c>
       <c r="I4" t="n">
-        <v>5.493490814370759</v>
+        <v>124.7964353442393</v>
       </c>
       <c r="J4" t="n">
-        <v>21.2925338539343</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0.8070376292070307</v>
       </c>
       <c r="R4" t="n">
-        <v>131.4605982158599</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.2524523656762</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5902694149747</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2634295265338</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>97.17107616242981</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>316.2023617328912</v>
       </c>
       <c r="I5" t="n">
-        <v>9.190429673428184</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>7.124098221796032</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.1483228680699</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.163859158965</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9716491425784</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.44606539625434</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.2925338539343</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.8070376292070307</v>
       </c>
       <c r="R7" t="n">
         <v>131.4605982158599</v>
@@ -27828,13 +27828,13 @@
         <v>223.5902694149747</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>183.9327880429286</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>198.9614258460698</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.44726725160467</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>91.22002417346657</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>255.1456449406901</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203922</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31841,28 +31841,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>459.3154675919703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>338.9915131655314</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M42" t="n">
-        <v>506.5665344352336</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420767</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473102</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>151.7927242951278</v>
+        <v>180.9196755614003</v>
       </c>
       <c r="K2" t="n">
-        <v>393.1161438138204</v>
+        <v>179.7276240769592</v>
       </c>
       <c r="L2" t="n">
         <v>540.5000123934201</v>
       </c>
       <c r="M2" t="n">
-        <v>168.6711618543495</v>
+        <v>618.184695347182</v>
       </c>
       <c r="N2" t="n">
-        <v>176.0608500972951</v>
+        <v>613.4077745092793</v>
       </c>
       <c r="O2" t="n">
-        <v>533.5794886556845</v>
+        <v>152.7793073929392</v>
       </c>
       <c r="P2" t="n">
-        <v>417.3428165400298</v>
+        <v>95.54410836854714</v>
       </c>
       <c r="Q2" t="n">
         <v>235.4052970160221</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>52.45911190755939</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9573755718393</v>
+        <v>58.49213855926072</v>
       </c>
       <c r="L3" t="n">
-        <v>125.4403442824297</v>
+        <v>496.2806895858889</v>
       </c>
       <c r="M3" t="n">
-        <v>631.6404209819922</v>
+        <v>165.9353572319923</v>
       </c>
       <c r="N3" t="n">
-        <v>353.9209446420858</v>
+        <v>660.7917881936459</v>
       </c>
       <c r="O3" t="n">
         <v>540.5484058333516</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.82306038932654</v>
+        <v>180.9196755614003</v>
       </c>
       <c r="K5" t="n">
-        <v>68.97073124265569</v>
+        <v>393.1161438138204</v>
       </c>
       <c r="L5" t="n">
         <v>540.5000123934201</v>
       </c>
       <c r="M5" t="n">
-        <v>618.184695347182</v>
+        <v>351.8592012479817</v>
       </c>
       <c r="N5" t="n">
-        <v>613.4077745092793</v>
+        <v>176.0608500972951</v>
       </c>
       <c r="O5" t="n">
         <v>533.5794886556845</v>
       </c>
       <c r="P5" t="n">
-        <v>206.9124257720836</v>
+        <v>417.3428165400298</v>
       </c>
       <c r="Q5" t="n">
         <v>23.09030635611742</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.1248428930349</v>
       </c>
       <c r="K6" t="n">
         <v>322.9573755718393</v>
       </c>
       <c r="L6" t="n">
-        <v>496.2806895858889</v>
+        <v>416.7697457545017</v>
       </c>
       <c r="M6" t="n">
         <v>631.6404209819922</v>
       </c>
       <c r="N6" t="n">
-        <v>301.5433679785637</v>
+        <v>660.7917881936459</v>
       </c>
       <c r="O6" t="n">
-        <v>540.5484058333516</v>
+        <v>146.6860865566221</v>
       </c>
       <c r="P6" t="n">
         <v>98.20016679483226</v>
@@ -35182,16 +35182,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>249.7209651371072</v>
       </c>
       <c r="O8" t="n">
-        <v>393.7968753611367</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>508.2267551530873</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.2847827366681</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>316.7192231475259</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132152</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.15822477541</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167436</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.950659512118</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549934</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016754</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111723</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.557074493086</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819483</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980862</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986655</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919385</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
